--- a/1-Data-Codes/0-Raw_Data/regions.xlsx
+++ b/1-Data-Codes/0-Raw_Data/regions.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Pablo\Dropbox\NK trade\JP\Data_Construction\RUV\1-Data-Codes\0-Raw_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13671" windowHeight="4903"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="13520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="93">
   <si>
     <t>number</t>
   </si>
@@ -230,24 +228,6 @@
     <t>Nevada</t>
   </si>
   <si>
-    <t>New Hampshire</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
     <t>Ohio</t>
   </si>
   <si>
@@ -260,15 +240,6 @@
     <t>Pennsylvania</t>
   </si>
   <si>
-    <t>Rhode Island</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
     <t>Tennessee</t>
   </si>
   <si>
@@ -287,23 +258,82 @@
     <t>Washington</t>
   </si>
   <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
     <t>Wisconsin</t>
   </si>
   <si>
     <t>Wyoming</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>NewHampshire</t>
+  </si>
+  <si>
+    <t>NewJersey</t>
+  </si>
+  <si>
+    <t>NewMexico</t>
+  </si>
+  <si>
+    <t>NewYork</t>
+  </si>
+  <si>
+    <t>NorthCarolina</t>
+  </si>
+  <si>
+    <t>NorthDakota</t>
+  </si>
+  <si>
+    <t>RhodeIsland</t>
+  </si>
+  <si>
+    <t>SouthCarolina</t>
+  </si>
+  <si>
+    <t>SouthDakota</t>
+  </si>
+  <si>
+    <t>WestVirginia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -326,13 +356,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -391,7 +434,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -426,7 +469,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -603,7 +646,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -611,727 +654,1000 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+      <c r="C45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+      <c r="C47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+      <c r="C48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+      <c r="C49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+      <c r="C50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+      <c r="C51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+      <c r="C52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C66" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C67" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C72" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C73" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C74" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C75" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C76" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A84">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C84" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C87" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C88" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>39</v>
       </c>
+      <c r="C89" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>